--- a/マニュアル情報テーブル8章.xlsx
+++ b/マニュアル情報テーブル8章.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
@@ -2303,6 +2303,7 @@
         </is>
       </c>
     </row>
+    <row r="16"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2776,7 +2777,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="20" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="20" t="inlineStr">
@@ -2784,7 +2785,7 @@
           <t>[限度額オーバー]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="20" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="20" t="inlineStr">
@@ -2792,289 +2793,289 @@
           <t>[与信未設定]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="20" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="20" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="20" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="20" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="20" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="20" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="20" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="20" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="20" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="20" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="20" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="20" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="20" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="20" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="20" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="20" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="20" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="20" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="20" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="20" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="20" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="20" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="20" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="20" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="20" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="20" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="20" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="20" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="20" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="20" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="20" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="20" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="20" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="20" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="20" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="20" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="20" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="20" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="20" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="20" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="20" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="20" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="20" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="20" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="20" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="20" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="20" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="20" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="20" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="20" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="20" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="20" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="20" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="20" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="20" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="20" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="20" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="20" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="20" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="20" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="20" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="20" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="20" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="20" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="20" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="20" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="20" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="20" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="20" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="20" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="20" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="20" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="20" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="20" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="20" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="20" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="20" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="20" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="20" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="20" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="20" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="20" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="20" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="20" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="20" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="20" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="20" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="20" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="20" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="20" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="20" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="20" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3118,298 +3119,298 @@
           <t>[部署別内訳]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="20" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="20" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="20" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="20" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="20" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="20" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="20" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="20" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="20" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="20" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="20" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="20" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="20" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="20" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="20" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="20" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="20" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="20" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="20" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="20" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="20" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="20" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="20" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="20" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="20" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="20" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="20" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="20" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="20" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="20" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="20" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="20" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="20" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="20" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="20" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="20" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="20" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="20" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="20" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="20" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="20" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="20" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="20" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="20" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="20" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="20" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="20" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="20" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="20" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="20" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="20" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="20" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="20" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="20" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="20" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="20" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="20" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="20" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="20" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="20" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="20" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="20" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="20" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="20" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="20" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="20" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="20" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="20" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="20" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="20" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="20" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="20" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="20" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="20" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="20" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="20" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="20" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="20" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="20" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="20" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="20" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="20" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="20" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="20" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="20" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="20" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="20" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="20" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="20" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="20" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="20" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="20" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="20" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="20" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="20" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3474,292 +3475,292 @@
       <c r="C3" s="20" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="20" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="20" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="20" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="20" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="20" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="20" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="20" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="20" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="20" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="20" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="20" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="20" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="20" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="20" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="20" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="20" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="20" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="20" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="20" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="20" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="20" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="20" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="20" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="20" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="20" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="20" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="20" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="20" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="20" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="20" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="20" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="20" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="20" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="20" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="20" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="20" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="20" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="20" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="20" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="20" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="20" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="20" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="20" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="20" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="20" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="20" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="20" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="20" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="20" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="20" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="20" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="20" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="20" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="20" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="20" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="20" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="20" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="20" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="20" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="20" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="20" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="20" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="20" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="20" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="20" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="20" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="20" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="20" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="20" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="20" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="20" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="20" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="20" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="20" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="20" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="20" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="20" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="20" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="20" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="20" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="20" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="20" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="20" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="20" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="20" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="20" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="20" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="20" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="20" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="20" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="20" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="20" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="20" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3821,7 +3822,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="20" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="20" t="inlineStr">
@@ -3847,289 +3848,289 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="20" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="20" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="20" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="20" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="20" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="20" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="20" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="20" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="20" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="20" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="20" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="20" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="20" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="20" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="20" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="20" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="20" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="20" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="20" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="20" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="20" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="20" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="20" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="20" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="20" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="20" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="20" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="20" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="20" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="20" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="20" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="20" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="20" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="20" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="20" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="20" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="20" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="20" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="20" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="20" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="20" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="20" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="20" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="20" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="20" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="20" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="20" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="20" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="20" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="20" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="20" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="20" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="20" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="20" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="20" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="20" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="20" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="20" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="20" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="20" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="20" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="20" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="20" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="20" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="20" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="20" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="20" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="20" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="20" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="20" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="20" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="20" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="20" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="20" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="20" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="20" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="20" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="20" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="20" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="20" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="20" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="20" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="20" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="20" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="20" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="20" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="20" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="20" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="20" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="20" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="20" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="20" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16259,292 +16260,292 @@
       <c r="C3" s="20" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="20" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="20" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="20" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="20" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="20" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="20" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="20" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="20" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="20" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="20" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="20" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="20" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="20" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="20" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="20" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="20" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="20" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="20" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="20" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="20" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="20" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="20" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="20" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="20" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="20" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="20" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="20" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="20" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="20" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="20" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="20" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="20" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="20" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="20" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="20" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="20" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="20" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="20" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="20" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="20" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="20" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="20" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="20" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="20" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="20" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="20" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="20" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="20" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="20" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="20" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="20" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="20" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="20" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="20" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="20" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="20" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="20" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="20" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="20" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="20" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="20" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="20" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="20" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="20" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="20" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="20" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="20" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="20" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="20" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="20" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="20" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="20" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="20" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="20" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="20" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="20" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="20" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="20" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="20" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="20" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="20" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="20" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="20" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="20" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="20" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="20" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="20" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="20" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="20" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="20" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="20" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="20" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="20" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16606,7 +16607,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="20" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="20" t="inlineStr">
@@ -16632,289 +16633,289 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="20" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="20" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="20" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="20" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="20" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="20" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="20" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="20" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="20" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="20" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="20" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="20" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="20" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="20" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="20" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="20" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="20" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="20" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="20" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="20" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="20" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="20" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="20" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="20" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="20" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="20" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="20" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="20" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="20" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="20" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="20" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="20" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="20" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="20" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="20" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="20" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="20" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="20" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="20" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="20" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="20" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="20" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="20" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="20" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="20" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="20" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="20" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="20" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="20" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="20" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="20" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="20" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="20" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="20" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="20" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="20" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="20" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="20" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="20" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="20" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="20" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="20" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="20" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="20" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="20" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="20" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="20" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="20" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="20" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="20" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="20" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="20" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="20" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="20" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="20" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="20" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="20" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="20" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="20" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="20" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="20" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="20" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="20" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="20" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="20" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="20" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="20" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="20" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="20" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="20" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="20" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="20" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16976,295 +16977,295 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="20" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="20" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="20" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="20" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="20" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="20" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="20" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="20" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="20" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="20" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="20" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="20" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="20" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="20" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="20" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="20" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="20" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="20" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="20" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="20" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="20" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="20" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="20" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="20" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="20" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="20" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="20" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="20" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="20" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="20" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="20" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="20" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="20" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="20" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="20" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="20" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="20" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="20" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="20" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="20" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="20" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="20" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="20" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="20" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="20" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="20" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="20" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="20" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="20" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="20" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="20" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="20" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="20" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="20" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="20" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="20" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="20" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="20" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="20" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="20" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="20" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="20" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="20" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="20" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="20" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="20" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="20" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="20" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="20" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="20" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="20" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="20" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="20" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="20" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="20" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="20" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="20" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="20" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="20" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="20" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="20" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="20" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="20" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="20" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="20" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="20" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="20" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="20" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="20" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="20" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="20" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="20" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="20" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="20" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17355,286 +17356,286 @@
       <c r="C5" s="20" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="20" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="20" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="20" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="20" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="20" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="20" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="20" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="20" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="20" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="20" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="20" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="20" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="20" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="20" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="20" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="20" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="20" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="20" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="20" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="20" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="20" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="20" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="20" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="20" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="20" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="20" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="20" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="20" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="20" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="20" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="20" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="20" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="20" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="20" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="20" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="20" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="20" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="20" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="20" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="20" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="20" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="20" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="20" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="20" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="20" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="20" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="20" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="20" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="20" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="20" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="20" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="20" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="20" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="20" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="20" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="20" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="20" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="20" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="20" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="20" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="20" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="20" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="20" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="20" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="20" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="20" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="20" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="20" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="20" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="20" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="20" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="20" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="20" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="20" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="20" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="20" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="20" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="20" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="20" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="20" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="20" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="20" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="20" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="20" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="20" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="20" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="20" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="20" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="20" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="20" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="20" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17678,7 +17679,7 @@
           <t>【代表取引先】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="20" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="20" t="inlineStr">
@@ -17686,7 +17687,7 @@
           <t>【与信限度額】</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="20" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="20" t="inlineStr">
@@ -17694,7 +17695,7 @@
           <t>【与信実績】</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="20" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="20" t="inlineStr">
@@ -17702,7 +17703,7 @@
           <t xml:space="preserve">[実績] </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="20" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="20" t="inlineStr">
@@ -17710,7 +17711,7 @@
           <t>[実績] 事業所別</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="20" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="20" t="inlineStr">
@@ -17718,283 +17719,283 @@
           <t>[実績] 統括事業所別</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="20" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="20" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="20" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="20" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="20" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="20" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="20" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="20" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="20" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="20" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="20" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="20" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="20" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="20" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="20" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="20" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="20" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="20" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="20" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="20" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="20" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="20" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="20" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="20" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="20" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="20" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="20" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="20" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="20" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="20" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="20" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="20" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="20" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="20" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="20" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="20" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="20" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="20" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="20" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="20" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="20" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="20" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="20" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="20" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="20" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="20" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="20" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="20" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="20" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="20" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="20" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="20" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="20" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="20" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="20" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="20" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="20" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="20" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="20" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="20" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="20" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="20" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="20" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="20" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="20" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="20" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="20" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="20" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="20" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="20" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="20" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="20" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="20" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="20" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="20" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="20" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="20" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="20" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="20" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="20" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="20" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="20" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="20" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="20" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="20" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="20" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="20" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="20" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="20" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="20" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18043,7 +18044,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="20" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="20" t="inlineStr">
@@ -18059,292 +18060,292 @@
       <c r="C3" s="20" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="20" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="20" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="20" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="20" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="20" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="20" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="20" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="20" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="20" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="20" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="20" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="20" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="20" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="20" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="20" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="20" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="20" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="20" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="20" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="20" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="20" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="20" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="20" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="20" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="20" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="20" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="20" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="20" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="20" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="20" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="20" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="20" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="20" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="20" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="20" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="20" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="20" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="20" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="20" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="20" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="20" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="20" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="20" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="20" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="20" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="20" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="20" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="20" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="20" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="20" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="20" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="20" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="20" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="20" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="20" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="20" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="20" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="20" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="20" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="20" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="20" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="20" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="20" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="20" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="20" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="20" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="20" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="20" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="20" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="20" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="20" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="20" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="20" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="20" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="20" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="20" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="20" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="20" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="20" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="20" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="20" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="20" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="20" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="20" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="20" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="20" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="20" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="20" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="20" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="20" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="20" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="20" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="20" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
